--- a/biology/Médecine/Workrave/Workrave.xlsx
+++ b/biology/Médecine/Workrave/Workrave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Workrave est une application libre prévue pour empêcher les utilisateurs d'ordinateur de développer ou d'aggraver des maladies professionnelles telles que le syndrome du canal carpien, les troubles musculo-squelettiques ou la myopie.
-Le logiciel verrouille périodiquement l'écran pour soit une "micro-pause" de quelques dizaines de secondes, soit une pause plus longue d'une à trois minutes pendant qu'un personnage animé, « Miss Workrave » (en français : Mademoiselle Workrave), assiste l'utilisateur dans divers exercices d'étirement[2],[3],[4]. L'utilisateur est prévenu des pauses et micro-pauses et peut les différer s'il a une urgence, mais pas indéfiniment.
-Le programme est multiplate-forme et dépend du widget toolkit GTK+ et aussi d'autres bibliothèques GNOME sur Linux. Il est aussi disponible sur Windows[1].
+Le logiciel verrouille périodiquement l'écran pour soit une "micro-pause" de quelques dizaines de secondes, soit une pause plus longue d'une à trois minutes pendant qu'un personnage animé, « Miss Workrave » (en français : Mademoiselle Workrave), assiste l'utilisateur dans divers exercices d'étirement. L'utilisateur est prévenu des pauses et micro-pauses et peut les différer s'il a une urgence, mais pas indéfiniment.
+Le programme est multiplate-forme et dépend du widget toolkit GTK+ et aussi d'autres bibliothèques GNOME sur Linux. Il est aussi disponible sur Windows.
 </t>
         </is>
       </c>
